--- a/Scraper.xlsx
+++ b/Scraper.xlsx
@@ -480,6 +480,7 @@
       </c>
     </row>
     <row r="4">
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">‘The Syndicate
@@ -488,7 +489,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">103,020,329
+          <t xml:space="preserve">110,065,591
 </t>
         </is>
       </c>
@@ -508,12 +509,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">89,145,560 2
+          <t xml:space="preserve">96,997,697 2+
 </t>
         </is>
       </c>
     </row>
     <row r="6">
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">The Syndicate
@@ -522,7 +524,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">77,726,630,
+          <t xml:space="preserve">85,043,177
 </t>
         </is>
       </c>
@@ -530,19 +532,19 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ONDRA722005
+          <t xml:space="preserve">‘amazon13
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cs Ryti
+          <t xml:space="preserve">‘ApeX Empire
 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">69,760,567,
+          <t xml:space="preserve">75,249,482,
 </t>
         </is>
       </c>
@@ -550,19 +552,19 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">mika.
+          <t xml:space="preserve">-Loup-
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘ApeX Empire
+          <t xml:space="preserve">Cataclysm
 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">65,895,064
+          <t xml:space="preserve">70,703,697,
 </t>
         </is>
       </c>
@@ -570,19 +572,19 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘amazon13
+          <t xml:space="preserve">ONDRA722005
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘ApeX Empire
+          <t xml:space="preserve">Cs Ryti
 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">65,169,750
+          <t xml:space="preserve">69,920,102.
 </t>
         </is>
       </c>
@@ -590,19 +592,19 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Loup-
+          <t xml:space="preserve">ELSANTO
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cataclysm
+          <t xml:space="preserve">‘ApeX Empire
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">60,163,951
+          <t xml:space="preserve">66,075,329,
 </t>
         </is>
       </c>
@@ -610,7 +612,7 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schnuppe
+          <t xml:space="preserve">mika.
 </t>
         </is>
       </c>
@@ -622,7 +624,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">56,479,137,
+          <t xml:space="preserve">66,007,481
 </t>
         </is>
       </c>
@@ -630,7 +632,7 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELSANTO
+          <t xml:space="preserve">Schnuppe
 </t>
         </is>
       </c>
@@ -642,12 +644,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">50,275,195.
+          <t xml:space="preserve">60,273,640
 </t>
         </is>
       </c>
     </row>
     <row r="13">
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">‘ApeX Empire
@@ -656,7 +659,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">50,100,902,
+          <t xml:space="preserve">52,950,049
 </t>
         </is>
       </c>
@@ -664,19 +667,19 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">drunkenDrake
+          <t xml:space="preserve">‘Triss
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cataclysm
+          <t xml:space="preserve">‘ApeX Empire
 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">48,902,619
+          <t xml:space="preserve">50,514,578
 </t>
         </is>
       </c>
@@ -696,7 +699,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">(47,569,488
+          <t xml:space="preserve">49,809,640
 </t>
         </is>
       </c>
@@ -704,19 +707,19 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘Triss
+          <t xml:space="preserve">Raiziel
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘ApeX Empire
+          <t xml:space="preserve">StarDusts
 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(47,179,344
+          <t xml:space="preserve">49,126,503
 </t>
         </is>
       </c>
@@ -724,19 +727,19 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">cezary2119
+          <t xml:space="preserve">drunkenDrake
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rebelia.
+          <t xml:space="preserve">Cataclysm
 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">42,306,323
+          <t xml:space="preserve">48,902,619
 </t>
         </is>
       </c>
@@ -744,19 +747,19 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raiziel
+          <t xml:space="preserve">cezary2119
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">StarDusts
+          <t xml:space="preserve">Rebelia.
 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">40,022,305
+          <t xml:space="preserve">45,884,969
 </t>
         </is>
       </c>
@@ -764,19 +767,19 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dren
+          <t xml:space="preserve">Beko4real
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘ApeX Empire
+          <t xml:space="preserve">Nemesis
 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">37,994,687,
+          <t xml:space="preserve">38,676,887,
 </t>
         </is>
       </c>
@@ -784,19 +787,19 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">fghtz
+          <t xml:space="preserve">Dren
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cataclysm
+          <t xml:space="preserve">‘ApeX Empire
 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">36,819,972,
+          <t xml:space="preserve">37,994,687,
 </t>
         </is>
       </c>
@@ -804,19 +807,19 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">hitsura
+          <t xml:space="preserve">fghtz
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Syndicate
+          <t xml:space="preserve">Cataclysm
 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">36,358,987,
+          <t xml:space="preserve">37,747,048
 </t>
         </is>
       </c>
@@ -824,19 +827,19 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beko4real
+          <t xml:space="preserve">hitsura
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nemesis
+          <t xml:space="preserve">The Syndicate
 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">31,377,437,
+          <t xml:space="preserve">36,484,420
 </t>
         </is>
       </c>
@@ -844,19 +847,19 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Black King
+          <t xml:space="preserve">dehandschutter5 |
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘ApeX Empire
+          <t xml:space="preserve">The Syndicate
 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">30,149,715,
+          <t xml:space="preserve">35,956,557,
 </t>
         </is>
       </c>
@@ -2849,7 +2852,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">70
@@ -2914,7 +2916,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
           <t xml:space="preserve">70
@@ -2951,7 +2952,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">70
@@ -3044,7 +3044,6 @@
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">70
